--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:49:32+00:00</t>
+    <t>2022-08-09T12:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -616,11 +616,36 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP仕様】&lt;br/&gt;
-基底仕様のカテゴリ「social-history」固定とする</t>
+【JP-Core仕様】基底仕様のカテゴリ「social-history」固定とする</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>socialHistory</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
+必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -631,18 +656,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -658,9 +671,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-項目についてはMEDISのJ-MIXの「生活背景情報」を基にバリューセットを定義する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+【JP-Core仕様】項目についてはMEDISのJ-MIXの「生活背景情報」を基にバリューセットを定義する</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -703,8 +714,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP仕様】&lt;br/&gt;
-患者</t>
+【JP-Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -737,7 +747,7 @@
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimin`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -799,8 +809,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP仕様】&lt;br/&gt;
-effectiveDateTime：医療者が確認した日時&lt;br/&gt;
+【JP-Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -860,7 +869,7 @@
 そのobservationは真だと言える責任者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -894,8 +903,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP仕様】&lt;br/&gt;
-文字列、コード、数値に限定する</t>
+【JP-Core仕様】文字列、コード、数値に限定する</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1349,7 +1357,7 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobserbationは、グループのメンバーとしてターゲットを含むグループobserbation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1377,8 +1385,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP仕様】&lt;br/&gt;
-導出元の参照リソースにJP_Observation_SocialHistoryを追加</t>
+【JP-Core仕様】導出元の参照リソースにJP_Observation_SocialHistoryを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1802,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1812,7 +1819,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.79296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3515,7 +3522,7 @@
         <v>90</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3546,7 +3553,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>81</v>
@@ -3567,25 +3574,23 @@
         <v>114</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>187</v>
@@ -3612,10 +3617,10 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3623,11 +3628,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3643,22 +3650,22 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -3668,7 +3675,7 @@
         <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>81</v>
@@ -3685,9 +3692,11 @@
       <c r="W16" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3705,13 +3714,13 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
@@ -3720,31 +3729,31 @@
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3763,19 +3772,19 @@
         <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -3800,13 +3809,11 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -3824,10 +3831,10 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>90</v>
@@ -3839,27 +3846,27 @@
         <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3867,10 +3874,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>81</v>
@@ -3882,18 +3889,20 @@
         <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3941,13 +3950,13 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>81</v>
@@ -3956,19 +3965,19 @@
         <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3976,18 +3985,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
@@ -3999,20 +4008,18 @@
         <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4060,13 +4067,13 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>81</v>
@@ -4075,19 +4082,19 @@
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4095,11 +4102,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4118,19 +4125,19 @@
         <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4179,7 +4186,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4194,19 +4201,19 @@
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4214,11 +4221,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4237,18 +4244,20 @@
         <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4296,7 +4305,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4311,19 +4320,19 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4331,7 +4340,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4342,7 +4351,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4354,20 +4363,18 @@
         <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4415,13 +4422,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4430,19 +4437,19 @@
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4450,7 +4457,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4461,7 +4468,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4473,19 +4480,19 @@
         <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4534,42 +4541,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4589,22 +4596,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4629,13 +4636,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4653,7 +4660,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4662,7 +4669,7 @@
         <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
@@ -4671,35 +4678,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4714,16 +4721,16 @@
         <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4748,13 +4755,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4772,16 +4779,16 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
@@ -4790,28 +4797,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4830,19 +4837,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4867,13 +4874,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4891,7 +4898,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4909,24 +4916,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4937,7 +4944,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4949,18 +4956,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4984,13 +4993,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5008,13 +5017,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5026,24 +5035,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5069,17 +5078,15 @@
         <v>188</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5103,31 +5110,31 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5145,24 +5152,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5185,18 +5192,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5220,13 +5229,13 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5244,7 +5253,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5262,24 +5271,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5302,16 +5311,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5361,7 +5370,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5379,24 +5388,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5407,7 +5416,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5419,20 +5428,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5480,42 +5487,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5526,7 +5533,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5538,16 +5545,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5595,31 +5606,31 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5630,18 +5641,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5653,17 +5664,15 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5718,13 +5727,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5736,7 +5745,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5747,11 +5756,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5764,26 +5773,24 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>136</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5831,7 +5838,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5855,7 +5862,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5866,39 +5873,43 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5946,19 +5957,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5967,10 +5978,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5981,7 +5992,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6004,13 +6015,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6061,7 +6072,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6070,7 +6081,7 @@
         <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
@@ -6082,7 +6093,7 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>378</v>
@@ -6119,7 +6130,7 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>188</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>380</v>
@@ -6127,12 +6138,8 @@
       <c r="L37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6156,13 +6163,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6189,7 +6196,7 @@
         <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
@@ -6198,13 +6205,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6215,7 +6222,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6226,7 +6233,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6241,16 +6248,16 @@
         <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6275,13 +6282,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>312</v>
+        <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6299,13 +6306,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6317,13 +6324,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6334,7 +6341,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6345,7 +6352,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6357,17 +6364,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6392,13 +6401,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6416,13 +6425,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6434,13 +6443,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6451,7 +6460,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6474,16 +6483,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6531,7 +6542,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6552,7 +6563,7 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>404</v>
@@ -6577,7 +6588,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6586,20 +6597,18 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6654,7 +6663,7 @@
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6669,10 +6678,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6683,7 +6692,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6706,16 +6715,16 @@
         <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6765,7 +6774,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6786,10 +6795,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6800,7 +6809,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6823,20 +6832,18 @@
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6884,7 +6891,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6905,10 +6912,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6919,7 +6926,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6930,7 +6937,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6939,19 +6946,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6999,19 +7010,19 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7020,10 +7031,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7034,18 +7045,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7057,17 +7068,15 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7122,13 +7131,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7140,7 +7149,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7151,11 +7160,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7168,26 +7177,24 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>136</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7235,7 +7242,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7259,7 +7266,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7270,42 +7277,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>139</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7330,13 +7337,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7354,34 +7361,34 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7389,7 +7396,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7397,7 +7404,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>90</v>
@@ -7412,19 +7419,19 @@
         <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>436</v>
+        <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7449,13 +7456,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7473,10 +7480,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -7491,24 +7498,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7528,22 +7535,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>188</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7568,13 +7575,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7592,7 +7599,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7601,7 +7608,7 @@
         <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>102</v>
@@ -7610,19 +7617,19 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50">
@@ -7631,14 +7638,14 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7653,16 +7660,16 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7687,13 +7694,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7717,10 +7724,10 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>102</v>
@@ -7729,19 +7736,19 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -7750,7 +7757,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7769,19 +7776,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7806,13 +7813,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7848,18 +7855,137 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>
